--- a/medicine/Psychotrope/Stout/Stout.xlsx
+++ b/medicine/Psychotrope/Stout/Stout.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le stout[1], ou la stout[2], est une bière brassée à partir d'un moût caractérisé par sa teneur en grains hautement torréfiés. La présence de ces grains bien grillés dans la recette confère la couleur foncée à la bière ainsi qu'un goût de café ou de cacao. Cette bière est devenue une spécialité irlandaise. Son origine première est cependant anglaise par sa filiation avec la porter. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le stout, ou la stout, est une bière brassée à partir d'un moût caractérisé par sa teneur en grains hautement torréfiés. La présence de ces grains bien grillés dans la recette confère la couleur foncée à la bière ainsi qu'un goût de café ou de cacao. Cette bière est devenue une spécialité irlandaise. Son origine première est cependant anglaise par sa filiation avec la porter. 
 Plusieurs marques irlandaises brassent des stouts : Beamish, Guinness, Murphy's ou Caffrey. Le genre a désormais dépassé les frontières de l'Irlande et est produit par des brasseries ailleurs en Europe.
 </t>
         </is>
